--- a/DOC/MDC/Mission_Data_Cards_FUN MAP v3.0.xlsx
+++ b/DOC/MDC/Mission_Data_Cards_FUN MAP v3.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\DCS\CSG-1\Missions\FUN MAP\Caucasus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\NO_MODS_CAUCASUS\DOC\MDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11436"/>
   </bookViews>
   <sheets>
     <sheet name="MISSION CARDS VMA" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="DATA Validation" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MISSION CARDS VMA'!$A$1:$AJ$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MISSION CARDS VMA'!$A$1:$AJ$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ROUTE!$A$1:$O$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="268">
   <si>
     <t>MISSION DATA CARD</t>
   </si>
@@ -820,89 +820,19 @@
     <t>RANGE GG33</t>
   </si>
   <si>
-    <t>N41°50'31 E041°47'52</t>
-  </si>
-  <si>
     <t>RANGE NL24</t>
   </si>
   <si>
-    <t>N41°05'51 E045°18'03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GG33 NORTH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>N°' E0°'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-GG33 SOUTH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>N°' E0°'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NL24 NORTH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>N°' E0°'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-NL24 SOUTH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>N°' E0°'</t>
-    </r>
-  </si>
-  <si>
     <t>TRACK LM / FL160 / KC130</t>
   </si>
   <si>
     <t>TRACK LM / FL200 / KC135</t>
+  </si>
+  <si>
+    <t>N41°03.912 E045°17.335</t>
+  </si>
+  <si>
+    <t>N41°50.511 E041°47.885</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1677,6 +1607,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1686,7 +1640,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,40 +1937,194 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2055,220 +2163,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2366,6 +2260,30 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4606,2194 +4524,2152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10:Y10"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="55" customWidth="1"/>
-    <col min="2" max="16384" width="5.42578125" style="55"/>
+    <col min="1" max="1" width="5.44140625" style="55" customWidth="1"/>
+    <col min="2" max="16384" width="5.44140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="155" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="156" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="161" t="str">
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="139" t="str">
         <f>$A$1</f>
         <v>FUN MAP</v>
       </c>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="162" t="str">
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="140" t="str">
         <f>$G$1</f>
         <v>MISSION DATA CARD</v>
       </c>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="163" t="str">
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="141" t="str">
         <f>$M$1</f>
         <v>SHANK</v>
       </c>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="163"/>
-    </row>
-    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="164" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="142" t="s">
         <v>241</v>
       </c>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="166"/>
-    </row>
-    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="144"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="177" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="T3" s="178"/>
-      <c r="U3" s="179" t="s">
+      <c r="T3" s="154"/>
+      <c r="U3" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179" t="s">
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="Y3" s="179"/>
+      <c r="Y3" s="155"/>
       <c r="Z3" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="AA3" s="177" t="s">
+      <c r="AA3" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="177" t="s">
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="153" t="s">
         <v>247</v>
       </c>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="177" t="s">
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="178"/>
-    </row>
-    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140" t="s">
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="154"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141" t="s">
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="129" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="144" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="158" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="158" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF4" s="160"/>
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="159"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="T5" s="145"/>
+      <c r="U5" s="146" t="s">
+        <v>253</v>
+      </c>
+      <c r="V5" s="148"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="147"/>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="150"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="151"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="151"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="152"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="147"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="147"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="147"/>
+    </row>
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="152"/>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="164"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="181" t="s">
-        <v>252</v>
-      </c>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181" t="s">
-        <v>249</v>
-      </c>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="181" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="182" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="182" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="183"/>
-      <c r="AE4" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF4" s="184"/>
-      <c r="AG4" s="184"/>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="183"/>
-    </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="151"/>
+      <c r="AJ10" s="152"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="146"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="147"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="152"/>
+    </row>
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="167" t="s">
-        <v>252</v>
-      </c>
-      <c r="T5" s="167"/>
-      <c r="U5" s="168" t="s">
-        <v>253</v>
-      </c>
-      <c r="V5" s="170"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="167" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="168" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="168" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="169"/>
-    </row>
-    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="148"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="148"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="147"/>
+    </row>
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="134" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="172"/>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="172"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="172"/>
-      <c r="AF6" s="173"/>
-      <c r="AG6" s="173"/>
-      <c r="AH6" s="173"/>
-      <c r="AI6" s="173"/>
-      <c r="AJ6" s="174"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="168"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="168"/>
-      <c r="AD7" s="169"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170"/>
-      <c r="AJ7" s="169"/>
-    </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="150"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="150"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="152"/>
+    </row>
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="176"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="176"/>
+      <c r="AI15" s="176"/>
+      <c r="AJ15" s="177"/>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="174"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="174"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140" t="s">
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="142" t="s">
+        <v>256</v>
+      </c>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="144"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="188"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="187"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
-      <c r="AI9" s="187"/>
-      <c r="AJ9" s="188"/>
-    </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133" t="s">
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="166"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="166"/>
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="166"/>
+      <c r="AF17" s="166"/>
+      <c r="AG17" s="166"/>
+      <c r="AH17" s="166"/>
+      <c r="AI17" s="166"/>
+      <c r="AJ17" s="167"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="174"/>
-    </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="137" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="168"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="170"/>
-      <c r="AH11" s="170"/>
-      <c r="AI11" s="170"/>
-      <c r="AJ11" s="169"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140" t="s">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="169"/>
+      <c r="U18" s="169"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="169"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="169"/>
+      <c r="AH18" s="169"/>
+      <c r="AI18" s="169"/>
+      <c r="AJ18" s="170"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="169"/>
+      <c r="U19" s="169"/>
+      <c r="V19" s="169"/>
+      <c r="W19" s="169"/>
+      <c r="X19" s="169"/>
+      <c r="Y19" s="169"/>
+      <c r="Z19" s="169"/>
+      <c r="AA19" s="169"/>
+      <c r="AB19" s="169"/>
+      <c r="AC19" s="169"/>
+      <c r="AD19" s="169"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="169"/>
+      <c r="AJ19" s="170"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="174"/>
-    </row>
-    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="140" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="169"/>
+      <c r="U20" s="169"/>
+      <c r="V20" s="169"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="169"/>
+      <c r="Y20" s="169"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="169"/>
+      <c r="AC20" s="169"/>
+      <c r="AD20" s="169"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="169"/>
+      <c r="AH20" s="169"/>
+      <c r="AI20" s="169"/>
+      <c r="AJ20" s="170"/>
+    </row>
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="169"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="169"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="170"/>
-      <c r="AJ13" s="169"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="133" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="169"/>
+      <c r="U21" s="169"/>
+      <c r="V21" s="169"/>
+      <c r="W21" s="169"/>
+      <c r="X21" s="169"/>
+      <c r="Y21" s="169"/>
+      <c r="Z21" s="169"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="169"/>
+      <c r="AC21" s="169"/>
+      <c r="AD21" s="169"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="169"/>
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="169"/>
+      <c r="AJ21" s="170"/>
+    </row>
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="171"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="172"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="173"/>
-      <c r="AH14" s="173"/>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="174"/>
-    </row>
-    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="137" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="189"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="192"/>
-      <c r="X15" s="189"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="190"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="190"/>
-      <c r="AD15" s="192"/>
-      <c r="AE15" s="190"/>
-      <c r="AF15" s="191"/>
-      <c r="AG15" s="191"/>
-      <c r="AH15" s="191"/>
-      <c r="AI15" s="191"/>
-      <c r="AJ15" s="192"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="140" t="s">
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="169"/>
+      <c r="U22" s="169"/>
+      <c r="V22" s="169"/>
+      <c r="W22" s="169"/>
+      <c r="X22" s="169"/>
+      <c r="Y22" s="169"/>
+      <c r="Z22" s="169"/>
+      <c r="AA22" s="169"/>
+      <c r="AB22" s="169"/>
+      <c r="AC22" s="169"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="169"/>
+      <c r="AJ22" s="170"/>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="169"/>
+      <c r="U23" s="169"/>
+      <c r="V23" s="169"/>
+      <c r="W23" s="169"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="169"/>
+      <c r="Z23" s="169"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="169"/>
+      <c r="AD23" s="169"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="169"/>
+      <c r="AJ23" s="170"/>
+    </row>
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="164" t="s">
-        <v>256</v>
-      </c>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="165"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="165"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="165"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="165"/>
-      <c r="AJ16" s="166"/>
-    </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="140" t="s">
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="169"/>
+      <c r="U24" s="169"/>
+      <c r="V24" s="169"/>
+      <c r="W24" s="169"/>
+      <c r="X24" s="169"/>
+      <c r="Y24" s="169"/>
+      <c r="Z24" s="169"/>
+      <c r="AA24" s="169"/>
+      <c r="AB24" s="169"/>
+      <c r="AC24" s="169"/>
+      <c r="AD24" s="169"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="169"/>
+      <c r="AJ24" s="170"/>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="126"/>
-    </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="169"/>
+      <c r="U25" s="169"/>
+      <c r="V25" s="169"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="169"/>
+      <c r="Y25" s="169"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="169"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="169"/>
+      <c r="AD25" s="169"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="169"/>
+      <c r="AG25" s="169"/>
+      <c r="AH25" s="169"/>
+      <c r="AI25" s="169"/>
+      <c r="AJ25" s="170"/>
+    </row>
+    <row r="26" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="129"/>
-    </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="137" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="129"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="140" t="s">
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="169"/>
+      <c r="U26" s="169"/>
+      <c r="V26" s="169"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="169"/>
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="169"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169"/>
+      <c r="AI26" s="169"/>
+      <c r="AJ26" s="170"/>
+    </row>
+    <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="169"/>
+      <c r="U27" s="169"/>
+      <c r="V27" s="169"/>
+      <c r="W27" s="169"/>
+      <c r="X27" s="169"/>
+      <c r="Y27" s="169"/>
+      <c r="Z27" s="169"/>
+      <c r="AA27" s="169"/>
+      <c r="AB27" s="169"/>
+      <c r="AC27" s="169"/>
+      <c r="AD27" s="169"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="169"/>
+      <c r="AG27" s="169"/>
+      <c r="AH27" s="169"/>
+      <c r="AI27" s="169"/>
+      <c r="AJ27" s="170"/>
+    </row>
+    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="128"/>
-      <c r="AJ20" s="129"/>
-    </row>
-    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140" t="s">
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="169"/>
+      <c r="U28" s="169"/>
+      <c r="V28" s="169"/>
+      <c r="W28" s="169"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="169"/>
+      <c r="Z28" s="169"/>
+      <c r="AA28" s="169"/>
+      <c r="AB28" s="169"/>
+      <c r="AC28" s="169"/>
+      <c r="AD28" s="169"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="169"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="169"/>
+      <c r="AI28" s="169"/>
+      <c r="AJ28" s="170"/>
+    </row>
+    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="129"/>
-    </row>
-    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133" t="s">
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="169"/>
+      <c r="U29" s="169"/>
+      <c r="V29" s="169"/>
+      <c r="W29" s="169"/>
+      <c r="X29" s="169"/>
+      <c r="Y29" s="169"/>
+      <c r="Z29" s="169"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="169"/>
+      <c r="AD29" s="169"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="169"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="169"/>
+      <c r="AJ29" s="170"/>
+    </row>
+    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="129"/>
-    </row>
-    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="137" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="129"/>
-    </row>
-    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="140" t="s">
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="169"/>
+      <c r="AC30" s="169"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="169"/>
+      <c r="AJ30" s="170"/>
+    </row>
+    <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="169"/>
+      <c r="U31" s="169"/>
+      <c r="V31" s="169"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="169"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AB31" s="169"/>
+      <c r="AC31" s="169"/>
+      <c r="AD31" s="169"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="169"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
+      <c r="AI31" s="169"/>
+      <c r="AJ31" s="170"/>
+    </row>
+    <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="128"/>
-      <c r="AJ24" s="129"/>
-    </row>
-    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="140" t="s">
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="169"/>
+      <c r="V32" s="169"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="169"/>
+      <c r="AB32" s="169"/>
+      <c r="AC32" s="169"/>
+      <c r="AD32" s="169"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="169"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
+      <c r="AI32" s="169"/>
+      <c r="AJ32" s="170"/>
+    </row>
+    <row r="33" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="129"/>
-    </row>
-    <row r="26" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="133" t="s">
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="169"/>
+      <c r="U33" s="169"/>
+      <c r="V33" s="169"/>
+      <c r="W33" s="169"/>
+      <c r="X33" s="169"/>
+      <c r="Y33" s="169"/>
+      <c r="Z33" s="169"/>
+      <c r="AA33" s="169"/>
+      <c r="AB33" s="169"/>
+      <c r="AC33" s="169"/>
+      <c r="AD33" s="169"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="169"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="169"/>
+      <c r="AI33" s="169"/>
+      <c r="AJ33" s="170"/>
+    </row>
+    <row r="34" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
-      <c r="AJ26" s="129"/>
-    </row>
-    <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
-      <c r="AJ27" s="129"/>
-    </row>
-    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="140" t="s">
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="169"/>
+      <c r="U34" s="169"/>
+      <c r="V34" s="169"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="169"/>
+      <c r="Y34" s="169"/>
+      <c r="Z34" s="169"/>
+      <c r="AA34" s="169"/>
+      <c r="AB34" s="169"/>
+      <c r="AC34" s="169"/>
+      <c r="AD34" s="169"/>
+      <c r="AE34" s="169"/>
+      <c r="AF34" s="169"/>
+      <c r="AG34" s="169"/>
+      <c r="AH34" s="169"/>
+      <c r="AI34" s="169"/>
+      <c r="AJ34" s="170"/>
+    </row>
+    <row r="35" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="168"/>
+      <c r="T35" s="169"/>
+      <c r="U35" s="169"/>
+      <c r="V35" s="169"/>
+      <c r="W35" s="169"/>
+      <c r="X35" s="169"/>
+      <c r="Y35" s="169"/>
+      <c r="Z35" s="169"/>
+      <c r="AA35" s="169"/>
+      <c r="AB35" s="169"/>
+      <c r="AC35" s="169"/>
+      <c r="AD35" s="169"/>
+      <c r="AE35" s="169"/>
+      <c r="AF35" s="169"/>
+      <c r="AG35" s="169"/>
+      <c r="AH35" s="169"/>
+      <c r="AI35" s="169"/>
+      <c r="AJ35" s="170"/>
+    </row>
+    <row r="36" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
-      <c r="AJ28" s="129"/>
-    </row>
-    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140" t="s">
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="132"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="169"/>
+      <c r="U36" s="169"/>
+      <c r="V36" s="169"/>
+      <c r="W36" s="169"/>
+      <c r="X36" s="169"/>
+      <c r="Y36" s="169"/>
+      <c r="Z36" s="169"/>
+      <c r="AA36" s="169"/>
+      <c r="AB36" s="169"/>
+      <c r="AC36" s="169"/>
+      <c r="AD36" s="169"/>
+      <c r="AE36" s="169"/>
+      <c r="AF36" s="169"/>
+      <c r="AG36" s="169"/>
+      <c r="AH36" s="169"/>
+      <c r="AI36" s="169"/>
+      <c r="AJ36" s="170"/>
+    </row>
+    <row r="37" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="128"/>
-      <c r="AJ29" s="129"/>
-    </row>
-    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133" t="s">
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="168"/>
+      <c r="T37" s="169"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="169"/>
+      <c r="W37" s="169"/>
+      <c r="X37" s="169"/>
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="169"/>
+      <c r="AA37" s="169"/>
+      <c r="AB37" s="169"/>
+      <c r="AC37" s="169"/>
+      <c r="AD37" s="169"/>
+      <c r="AE37" s="169"/>
+      <c r="AF37" s="169"/>
+      <c r="AG37" s="169"/>
+      <c r="AH37" s="169"/>
+      <c r="AI37" s="169"/>
+      <c r="AJ37" s="170"/>
+    </row>
+    <row r="38" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
-      <c r="AJ30" s="129"/>
-    </row>
-    <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
-      <c r="AJ31" s="129"/>
-    </row>
-    <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="140" t="s">
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="135"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="169"/>
+      <c r="U38" s="169"/>
+      <c r="V38" s="169"/>
+      <c r="W38" s="169"/>
+      <c r="X38" s="169"/>
+      <c r="Y38" s="169"/>
+      <c r="Z38" s="169"/>
+      <c r="AA38" s="169"/>
+      <c r="AB38" s="169"/>
+      <c r="AC38" s="169"/>
+      <c r="AD38" s="169"/>
+      <c r="AE38" s="169"/>
+      <c r="AF38" s="169"/>
+      <c r="AG38" s="169"/>
+      <c r="AH38" s="169"/>
+      <c r="AI38" s="169"/>
+      <c r="AJ38" s="170"/>
+    </row>
+    <row r="39" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="121" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="168"/>
+      <c r="T39" s="169"/>
+      <c r="U39" s="169"/>
+      <c r="V39" s="169"/>
+      <c r="W39" s="169"/>
+      <c r="X39" s="169"/>
+      <c r="Y39" s="169"/>
+      <c r="Z39" s="169"/>
+      <c r="AA39" s="169"/>
+      <c r="AB39" s="169"/>
+      <c r="AC39" s="169"/>
+      <c r="AD39" s="169"/>
+      <c r="AE39" s="169"/>
+      <c r="AF39" s="169"/>
+      <c r="AG39" s="169"/>
+      <c r="AH39" s="169"/>
+      <c r="AI39" s="169"/>
+      <c r="AJ39" s="170"/>
+    </row>
+    <row r="40" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="129"/>
-    </row>
-    <row r="33" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="140" t="s">
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="168"/>
+      <c r="T40" s="169"/>
+      <c r="U40" s="169"/>
+      <c r="V40" s="169"/>
+      <c r="W40" s="169"/>
+      <c r="X40" s="169"/>
+      <c r="Y40" s="169"/>
+      <c r="Z40" s="169"/>
+      <c r="AA40" s="169"/>
+      <c r="AB40" s="169"/>
+      <c r="AC40" s="169"/>
+      <c r="AD40" s="169"/>
+      <c r="AE40" s="169"/>
+      <c r="AF40" s="169"/>
+      <c r="AG40" s="169"/>
+      <c r="AH40" s="169"/>
+      <c r="AI40" s="169"/>
+      <c r="AJ40" s="170"/>
+    </row>
+    <row r="41" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="129"/>
-    </row>
-    <row r="34" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="133" t="s">
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="168"/>
+      <c r="T41" s="169"/>
+      <c r="U41" s="169"/>
+      <c r="V41" s="169"/>
+      <c r="W41" s="169"/>
+      <c r="X41" s="169"/>
+      <c r="Y41" s="169"/>
+      <c r="Z41" s="169"/>
+      <c r="AA41" s="169"/>
+      <c r="AB41" s="169"/>
+      <c r="AC41" s="169"/>
+      <c r="AD41" s="169"/>
+      <c r="AE41" s="169"/>
+      <c r="AF41" s="169"/>
+      <c r="AG41" s="169"/>
+      <c r="AH41" s="169"/>
+      <c r="AI41" s="169"/>
+      <c r="AJ41" s="170"/>
+    </row>
+    <row r="42" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-      <c r="O34" s="146"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="128"/>
-      <c r="AJ34" s="129"/>
-    </row>
-    <row r="35" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="138"/>
-      <c r="R35" s="139"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="128"/>
-      <c r="AD35" s="128"/>
-      <c r="AE35" s="128"/>
-      <c r="AF35" s="128"/>
-      <c r="AG35" s="128"/>
-      <c r="AH35" s="128"/>
-      <c r="AI35" s="128"/>
-      <c r="AJ35" s="129"/>
-    </row>
-    <row r="36" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="140" t="s">
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="168"/>
+      <c r="T42" s="169"/>
+      <c r="U42" s="169"/>
+      <c r="V42" s="169"/>
+      <c r="W42" s="169"/>
+      <c r="X42" s="169"/>
+      <c r="Y42" s="169"/>
+      <c r="Z42" s="169"/>
+      <c r="AA42" s="169"/>
+      <c r="AB42" s="169"/>
+      <c r="AC42" s="169"/>
+      <c r="AD42" s="169"/>
+      <c r="AE42" s="169"/>
+      <c r="AF42" s="169"/>
+      <c r="AG42" s="169"/>
+      <c r="AH42" s="169"/>
+      <c r="AI42" s="169"/>
+      <c r="AJ42" s="170"/>
+    </row>
+    <row r="43" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="121" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="169"/>
+      <c r="U43" s="169"/>
+      <c r="V43" s="169"/>
+      <c r="W43" s="169"/>
+      <c r="X43" s="169"/>
+      <c r="Y43" s="169"/>
+      <c r="Z43" s="169"/>
+      <c r="AA43" s="169"/>
+      <c r="AB43" s="169"/>
+      <c r="AC43" s="169"/>
+      <c r="AD43" s="169"/>
+      <c r="AE43" s="169"/>
+      <c r="AF43" s="169"/>
+      <c r="AG43" s="169"/>
+      <c r="AH43" s="169"/>
+      <c r="AI43" s="169"/>
+      <c r="AJ43" s="170"/>
+    </row>
+    <row r="44" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="145"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="128"/>
-      <c r="X36" s="128"/>
-      <c r="Y36" s="128"/>
-      <c r="Z36" s="128"/>
-      <c r="AA36" s="128"/>
-      <c r="AB36" s="128"/>
-      <c r="AC36" s="128"/>
-      <c r="AD36" s="128"/>
-      <c r="AE36" s="128"/>
-      <c r="AF36" s="128"/>
-      <c r="AG36" s="128"/>
-      <c r="AH36" s="128"/>
-      <c r="AI36" s="128"/>
-      <c r="AJ36" s="129"/>
-    </row>
-    <row r="37" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="140" t="s">
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="133"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="169"/>
+      <c r="U44" s="169"/>
+      <c r="V44" s="169"/>
+      <c r="W44" s="169"/>
+      <c r="X44" s="169"/>
+      <c r="Y44" s="169"/>
+      <c r="Z44" s="169"/>
+      <c r="AA44" s="169"/>
+      <c r="AB44" s="169"/>
+      <c r="AC44" s="169"/>
+      <c r="AD44" s="169"/>
+      <c r="AE44" s="169"/>
+      <c r="AF44" s="169"/>
+      <c r="AG44" s="169"/>
+      <c r="AH44" s="169"/>
+      <c r="AI44" s="169"/>
+      <c r="AJ44" s="170"/>
+    </row>
+    <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="128"/>
-      <c r="Y37" s="128"/>
-      <c r="Z37" s="128"/>
-      <c r="AA37" s="128"/>
-      <c r="AB37" s="128"/>
-      <c r="AC37" s="128"/>
-      <c r="AD37" s="128"/>
-      <c r="AE37" s="128"/>
-      <c r="AF37" s="128"/>
-      <c r="AG37" s="128"/>
-      <c r="AH37" s="128"/>
-      <c r="AI37" s="128"/>
-      <c r="AJ37" s="129"/>
-    </row>
-    <row r="38" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="133" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="134"/>
+      <c r="P45" s="134"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="171"/>
+      <c r="T45" s="172"/>
+      <c r="U45" s="172"/>
+      <c r="V45" s="172"/>
+      <c r="W45" s="172"/>
+      <c r="X45" s="172"/>
+      <c r="Y45" s="172"/>
+      <c r="Z45" s="172"/>
+      <c r="AA45" s="172"/>
+      <c r="AB45" s="172"/>
+      <c r="AC45" s="172"/>
+      <c r="AD45" s="172"/>
+      <c r="AE45" s="172"/>
+      <c r="AF45" s="172"/>
+      <c r="AG45" s="172"/>
+      <c r="AH45" s="172"/>
+      <c r="AI45" s="172"/>
+      <c r="AJ45" s="173"/>
+    </row>
+    <row r="46" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="128"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="128"/>
-      <c r="AA38" s="128"/>
-      <c r="AB38" s="128"/>
-      <c r="AC38" s="128"/>
-      <c r="AD38" s="128"/>
-      <c r="AE38" s="128"/>
-      <c r="AF38" s="128"/>
-      <c r="AG38" s="128"/>
-      <c r="AH38" s="128"/>
-      <c r="AI38" s="128"/>
-      <c r="AJ38" s="129"/>
-    </row>
-    <row r="39" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="138"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="128"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="128"/>
-      <c r="AF39" s="128"/>
-      <c r="AG39" s="128"/>
-      <c r="AH39" s="128"/>
-      <c r="AI39" s="128"/>
-      <c r="AJ39" s="129"/>
-    </row>
-    <row r="40" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="144"/>
-      <c r="P40" s="144"/>
-      <c r="Q40" s="144"/>
-      <c r="R40" s="145"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="128"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="128"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="128"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="128"/>
-      <c r="AF40" s="128"/>
-      <c r="AG40" s="128"/>
-      <c r="AH40" s="128"/>
-      <c r="AI40" s="128"/>
-      <c r="AJ40" s="129"/>
-    </row>
-    <row r="41" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
-      <c r="O41" s="146"/>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="146"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="128"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="128"/>
-      <c r="AF41" s="128"/>
-      <c r="AG41" s="128"/>
-      <c r="AH41" s="128"/>
-      <c r="AI41" s="128"/>
-      <c r="AJ41" s="129"/>
-    </row>
-    <row r="42" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="146"/>
-      <c r="R42" s="147"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
-      <c r="W42" s="128"/>
-      <c r="X42" s="128"/>
-      <c r="Y42" s="128"/>
-      <c r="Z42" s="128"/>
-      <c r="AA42" s="128"/>
-      <c r="AB42" s="128"/>
-      <c r="AC42" s="128"/>
-      <c r="AD42" s="128"/>
-      <c r="AE42" s="128"/>
-      <c r="AF42" s="128"/>
-      <c r="AG42" s="128"/>
-      <c r="AH42" s="128"/>
-      <c r="AI42" s="128"/>
-      <c r="AJ42" s="129"/>
-    </row>
-    <row r="43" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="139"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128"/>
-      <c r="X43" s="128"/>
-      <c r="Y43" s="128"/>
-      <c r="Z43" s="128"/>
-      <c r="AA43" s="128"/>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128"/>
-      <c r="AF43" s="128"/>
-      <c r="AG43" s="128"/>
-      <c r="AH43" s="128"/>
-      <c r="AI43" s="128"/>
-      <c r="AJ43" s="129"/>
-    </row>
-    <row r="44" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
-      <c r="Q44" s="144"/>
-      <c r="R44" s="145"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="128"/>
-      <c r="U44" s="128"/>
-      <c r="V44" s="128"/>
-      <c r="W44" s="128"/>
-      <c r="X44" s="128"/>
-      <c r="Y44" s="128"/>
-      <c r="Z44" s="128"/>
-      <c r="AA44" s="128"/>
-      <c r="AB44" s="128"/>
-      <c r="AC44" s="128"/>
-      <c r="AD44" s="128"/>
-      <c r="AE44" s="128"/>
-      <c r="AF44" s="128"/>
-      <c r="AG44" s="128"/>
-      <c r="AH44" s="128"/>
-      <c r="AI44" s="128"/>
-      <c r="AJ44" s="129"/>
-    </row>
-    <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="146"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="130"/>
-      <c r="T45" s="131"/>
-      <c r="U45" s="131"/>
-      <c r="V45" s="131"/>
-      <c r="W45" s="131"/>
-      <c r="X45" s="131"/>
-      <c r="Y45" s="131"/>
-      <c r="Z45" s="131"/>
-      <c r="AA45" s="131"/>
-      <c r="AB45" s="131"/>
-      <c r="AC45" s="131"/>
-      <c r="AD45" s="131"/>
-      <c r="AE45" s="131"/>
-      <c r="AF45" s="131"/>
-      <c r="AG45" s="131"/>
-      <c r="AH45" s="131"/>
-      <c r="AI45" s="131"/>
-      <c r="AJ45" s="132"/>
-    </row>
-    <row r="46" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="146"/>
-      <c r="N46" s="146"/>
-      <c r="O46" s="146"/>
-      <c r="P46" s="146"/>
-      <c r="Q46" s="146"/>
-      <c r="R46" s="147"/>
-      <c r="S46" s="164" t="s">
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="134"/>
+      <c r="P46" s="134"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="135"/>
+      <c r="S46" s="142" t="s">
         <v>240</v>
       </c>
-      <c r="T46" s="165"/>
-      <c r="U46" s="165"/>
-      <c r="V46" s="165"/>
-      <c r="W46" s="165"/>
-      <c r="X46" s="165"/>
-      <c r="Y46" s="165"/>
-      <c r="Z46" s="165"/>
-      <c r="AA46" s="165"/>
-      <c r="AB46" s="165"/>
-      <c r="AC46" s="165"/>
-      <c r="AD46" s="165"/>
-      <c r="AE46" s="165"/>
-      <c r="AF46" s="165"/>
-      <c r="AG46" s="165"/>
-      <c r="AH46" s="165"/>
-      <c r="AI46" s="165"/>
-      <c r="AJ46" s="166"/>
-    </row>
-    <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="175"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="157"/>
-      <c r="V47" s="157"/>
-      <c r="W47" s="157"/>
-      <c r="X47" s="157"/>
-      <c r="Y47" s="157"/>
-      <c r="Z47" s="157"/>
-      <c r="AA47" s="157"/>
-      <c r="AB47" s="157"/>
-      <c r="AC47" s="157"/>
-      <c r="AD47" s="157"/>
-      <c r="AE47" s="157"/>
-      <c r="AF47" s="157"/>
-      <c r="AG47" s="157"/>
-      <c r="AH47" s="157"/>
-      <c r="AI47" s="157"/>
-      <c r="AJ47" s="158"/>
-    </row>
-    <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="118"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="175"/>
-      <c r="T48" s="157"/>
-      <c r="U48" s="157"/>
-      <c r="V48" s="157"/>
-      <c r="W48" s="157"/>
-      <c r="X48" s="157"/>
-      <c r="Y48" s="157"/>
-      <c r="Z48" s="157"/>
-      <c r="AA48" s="157"/>
-      <c r="AB48" s="157"/>
-      <c r="AC48" s="157"/>
-      <c r="AD48" s="157"/>
-      <c r="AE48" s="157"/>
-      <c r="AF48" s="157"/>
-      <c r="AG48" s="157"/>
-      <c r="AH48" s="157"/>
-      <c r="AI48" s="157"/>
-      <c r="AJ48" s="158"/>
-    </row>
-    <row r="49" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="118"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="175"/>
-      <c r="T49" s="157"/>
-      <c r="U49" s="157"/>
-      <c r="V49" s="157"/>
-      <c r="W49" s="157"/>
-      <c r="X49" s="157"/>
-      <c r="Y49" s="157"/>
-      <c r="Z49" s="157"/>
-      <c r="AA49" s="157"/>
-      <c r="AB49" s="157"/>
-      <c r="AC49" s="157"/>
-      <c r="AD49" s="157"/>
-      <c r="AE49" s="157"/>
-      <c r="AF49" s="157"/>
-      <c r="AG49" s="157"/>
-      <c r="AH49" s="157"/>
-      <c r="AI49" s="157"/>
-      <c r="AJ49" s="158"/>
-    </row>
-    <row r="50" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="175"/>
-      <c r="T50" s="157"/>
-      <c r="U50" s="157"/>
-      <c r="V50" s="157"/>
-      <c r="W50" s="157"/>
-      <c r="X50" s="157"/>
-      <c r="Y50" s="157"/>
-      <c r="Z50" s="157"/>
-      <c r="AA50" s="157"/>
-      <c r="AB50" s="157"/>
-      <c r="AC50" s="157"/>
-      <c r="AD50" s="157"/>
-      <c r="AE50" s="157"/>
-      <c r="AF50" s="157"/>
-      <c r="AG50" s="157"/>
-      <c r="AH50" s="157"/>
-      <c r="AI50" s="157"/>
-      <c r="AJ50" s="158"/>
-    </row>
-    <row r="51" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="118"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="175"/>
-      <c r="T51" s="157"/>
-      <c r="U51" s="157"/>
-      <c r="V51" s="157"/>
-      <c r="W51" s="157"/>
-      <c r="X51" s="157"/>
-      <c r="Y51" s="157"/>
-      <c r="Z51" s="157"/>
-      <c r="AA51" s="157"/>
-      <c r="AB51" s="157"/>
-      <c r="AC51" s="157"/>
-      <c r="AD51" s="157"/>
-      <c r="AE51" s="157"/>
-      <c r="AF51" s="157"/>
-      <c r="AG51" s="157"/>
-      <c r="AH51" s="157"/>
-      <c r="AI51" s="157"/>
-      <c r="AJ51" s="158"/>
-    </row>
-    <row r="52" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="123"/>
-      <c r="S52" s="176"/>
-      <c r="T52" s="159"/>
-      <c r="U52" s="159"/>
-      <c r="V52" s="159"/>
-      <c r="W52" s="159"/>
-      <c r="X52" s="159"/>
-      <c r="Y52" s="159"/>
-      <c r="Z52" s="159"/>
-      <c r="AA52" s="159"/>
-      <c r="AB52" s="159"/>
-      <c r="AC52" s="159"/>
-      <c r="AD52" s="159"/>
-      <c r="AE52" s="159"/>
-      <c r="AF52" s="159"/>
-      <c r="AG52" s="159"/>
-      <c r="AH52" s="159"/>
-      <c r="AI52" s="159"/>
-      <c r="AJ52" s="160"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-    </row>
-    <row r="54" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
+      <c r="T46" s="143"/>
+      <c r="U46" s="143"/>
+      <c r="V46" s="143"/>
+      <c r="W46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="143"/>
+      <c r="AD46" s="143"/>
+      <c r="AE46" s="143"/>
+      <c r="AF46" s="143"/>
+      <c r="AG46" s="143"/>
+      <c r="AH46" s="143"/>
+      <c r="AI46" s="143"/>
+      <c r="AJ46" s="144"/>
+    </row>
+    <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="205"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="205"/>
+      <c r="J47" s="205"/>
+      <c r="K47" s="205"/>
+      <c r="L47" s="205"/>
+      <c r="M47" s="205"/>
+      <c r="N47" s="205"/>
+      <c r="O47" s="205"/>
+      <c r="P47" s="205"/>
+      <c r="Q47" s="205"/>
+      <c r="R47" s="205"/>
+      <c r="S47" s="206"/>
+      <c r="T47" s="206"/>
+      <c r="U47" s="206"/>
+      <c r="V47" s="206"/>
+      <c r="W47" s="206"/>
+      <c r="X47" s="206"/>
+      <c r="Y47" s="206"/>
+      <c r="Z47" s="206"/>
+      <c r="AA47" s="206"/>
+      <c r="AB47" s="206"/>
+      <c r="AC47" s="206"/>
+      <c r="AD47" s="206"/>
+      <c r="AE47" s="206"/>
+      <c r="AF47" s="206"/>
+      <c r="AG47" s="206"/>
+      <c r="AH47" s="206"/>
+      <c r="AI47" s="206"/>
+      <c r="AJ47" s="206"/>
+    </row>
+    <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="207"/>
+      <c r="B48" s="207"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="207"/>
+      <c r="J48" s="207"/>
+      <c r="K48" s="207"/>
+      <c r="L48" s="207"/>
+      <c r="M48" s="207"/>
+      <c r="N48" s="207"/>
+      <c r="O48" s="207"/>
+      <c r="P48" s="207"/>
+      <c r="Q48" s="207"/>
+      <c r="R48" s="207"/>
+      <c r="S48" s="208"/>
+      <c r="T48" s="208"/>
+      <c r="U48" s="208"/>
+      <c r="V48" s="208"/>
+      <c r="W48" s="208"/>
+      <c r="X48" s="208"/>
+      <c r="Y48" s="208"/>
+      <c r="Z48" s="208"/>
+      <c r="AA48" s="208"/>
+      <c r="AB48" s="208"/>
+      <c r="AC48" s="208"/>
+      <c r="AD48" s="208"/>
+      <c r="AE48" s="208"/>
+      <c r="AF48" s="208"/>
+      <c r="AG48" s="208"/>
+      <c r="AH48" s="208"/>
+      <c r="AI48" s="208"/>
+      <c r="AJ48" s="208"/>
+    </row>
+    <row r="49" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="207"/>
+      <c r="B49" s="207"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="207"/>
+      <c r="K49" s="207"/>
+      <c r="L49" s="207"/>
+      <c r="M49" s="207"/>
+      <c r="N49" s="207"/>
+      <c r="O49" s="207"/>
+      <c r="P49" s="207"/>
+      <c r="Q49" s="207"/>
+      <c r="R49" s="207"/>
+      <c r="S49" s="208"/>
+      <c r="T49" s="208"/>
+      <c r="U49" s="208"/>
+      <c r="V49" s="208"/>
+      <c r="W49" s="208"/>
+      <c r="X49" s="208"/>
+      <c r="Y49" s="208"/>
+      <c r="Z49" s="208"/>
+      <c r="AA49" s="208"/>
+      <c r="AB49" s="208"/>
+      <c r="AC49" s="208"/>
+      <c r="AD49" s="208"/>
+      <c r="AE49" s="208"/>
+      <c r="AF49" s="208"/>
+      <c r="AG49" s="208"/>
+      <c r="AH49" s="208"/>
+      <c r="AI49" s="208"/>
+      <c r="AJ49" s="208"/>
+    </row>
+    <row r="50" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="207"/>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
+      <c r="K50" s="207"/>
+      <c r="L50" s="207"/>
+      <c r="M50" s="207"/>
+      <c r="N50" s="207"/>
+      <c r="O50" s="207"/>
+      <c r="P50" s="207"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="207"/>
+      <c r="S50" s="208"/>
+      <c r="T50" s="208"/>
+      <c r="U50" s="208"/>
+      <c r="V50" s="208"/>
+      <c r="W50" s="208"/>
+      <c r="X50" s="208"/>
+      <c r="Y50" s="208"/>
+      <c r="Z50" s="208"/>
+      <c r="AA50" s="208"/>
+      <c r="AB50" s="208"/>
+      <c r="AC50" s="208"/>
+      <c r="AD50" s="208"/>
+      <c r="AE50" s="208"/>
+      <c r="AF50" s="208"/>
+      <c r="AG50" s="208"/>
+      <c r="AH50" s="208"/>
+      <c r="AI50" s="208"/>
+      <c r="AJ50" s="208"/>
+    </row>
+    <row r="51" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="209"/>
+      <c r="B51" s="209"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="209"/>
+      <c r="J51" s="209"/>
+      <c r="K51" s="209"/>
+      <c r="L51" s="209"/>
+      <c r="M51" s="209"/>
+      <c r="N51" s="209"/>
+      <c r="O51" s="209"/>
+      <c r="P51" s="209"/>
+      <c r="Q51" s="209"/>
+      <c r="R51" s="209"/>
+      <c r="S51" s="210"/>
+      <c r="T51" s="210"/>
+      <c r="U51" s="210"/>
+      <c r="V51" s="210"/>
+      <c r="W51" s="210"/>
+      <c r="X51" s="210"/>
+      <c r="Y51" s="210"/>
+      <c r="Z51" s="210"/>
+      <c r="AA51" s="210"/>
+      <c r="AB51" s="210"/>
+      <c r="AC51" s="210"/>
+      <c r="AD51" s="210"/>
+      <c r="AE51" s="210"/>
+      <c r="AF51" s="210"/>
+      <c r="AG51" s="210"/>
+      <c r="AH51" s="210"/>
+      <c r="AI51" s="210"/>
+      <c r="AJ51" s="210"/>
+    </row>
+    <row r="52" spans="1:36" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0"/>
@@ -6808,13 +6684,6 @@
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:I37"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:R26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:I26"/>
     <mergeCell ref="A31:R31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:I32"/>
@@ -6823,15 +6692,23 @@
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:I34"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J16:R18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J28:R30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:R26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:I26"/>
     <mergeCell ref="S16:AJ16"/>
     <mergeCell ref="S17:AJ45"/>
     <mergeCell ref="AE14:AJ14"/>
@@ -6886,7 +6763,7 @@
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AE7:AJ7"/>
     <mergeCell ref="S46:AJ46"/>
-    <mergeCell ref="S47:AJ52"/>
+    <mergeCell ref="S47:AJ51"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:Y3"/>
@@ -6918,21 +6795,6 @@
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AE6:AJ6"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="J20:R22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="J28:R30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:I30"/>
     <mergeCell ref="A35:R35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:I36"/>
@@ -6943,11 +6805,20 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:I14"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:R6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J16:R18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J20:R22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="A7:R7"/>
@@ -6958,7 +6829,15 @@
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="A47:R52"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A47:R51"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="A43:R43"/>
@@ -6969,14 +6848,11 @@
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6995,24 +6871,24 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="60" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="60" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="60" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="60" customWidth="1"/>
     <col min="7" max="7" width="13" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="60" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="60" customWidth="1"/>
-    <col min="12" max="15" width="13.140625" style="60" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="61"/>
+    <col min="8" max="8" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="60" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="60" customWidth="1"/>
+    <col min="12" max="15" width="13.109375" style="60" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
@@ -7059,7 +6935,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="62"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -7094,7 +6970,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="65"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65"/>
@@ -7126,7 +7002,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="62"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -7158,7 +7034,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -7190,7 +7066,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -7223,7 +7099,7 @@
       </c>
       <c r="Q6" s="94"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -7255,7 +7131,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -7287,7 +7163,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="66"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
@@ -7319,7 +7195,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="62"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
@@ -7339,7 +7215,7 @@
       <c r="N10" s="91"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
@@ -7359,7 +7235,7 @@
       <c r="N11" s="66"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -7379,7 +7255,7 @@
       <c r="N12" s="91"/>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -7399,7 +7275,7 @@
       <c r="N13" s="66"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
@@ -7419,7 +7295,7 @@
       <c r="N14" s="91"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="66"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -7451,7 +7327,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="62"/>
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
@@ -7471,7 +7347,7 @@
       <c r="N16" s="92"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -7503,7 +7379,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -7535,7 +7411,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -7567,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="62"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -7599,7 +7475,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -7631,7 +7507,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D22" s="69" t="s">
         <v>40</v>
       </c>
@@ -7664,12 +7540,12 @@
       </c>
       <c r="O22" s="85"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" s="73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" s="73" t="s">
         <v>110</v>
       </c>
@@ -7682,7 +7558,7 @@
       </c>
       <c r="P24" s="72"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G25" s="69" t="s">
         <v>215</v>
       </c>
@@ -7691,10 +7567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L29" s="74"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L32" s="74"/>
     </row>
   </sheetData>
@@ -7713,30 +7589,30 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="7.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="7.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -7751,7 +7627,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -7766,7 +7642,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -7781,7 +7657,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="7" t="s">
         <v>23</v>
@@ -7796,7 +7672,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" s="7" t="s">
         <v>94</v>
@@ -7815,7 +7691,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="7" t="s">
         <v>208</v>
@@ -7840,7 +7716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" s="7" t="s">
         <v>210</v>
@@ -7862,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" s="7" t="s">
         <v>211</v>
@@ -7875,18 +7751,18 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="193" t="s">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J14" s="45"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
         <v>4</v>
       </c>
@@ -7898,7 +7774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="54" t="s">
         <v>3</v>
       </c>
@@ -7910,7 +7786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="54" t="s">
         <v>2</v>
       </c>
@@ -7922,7 +7798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="54" t="s">
         <v>96</v>
       </c>
@@ -7935,7 +7811,7 @@
       </c>
       <c r="E18" s="53"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
         <v>206</v>
       </c>
@@ -7947,7 +7823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="54" t="s">
         <v>90</v>
       </c>
@@ -7960,7 +7836,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="54" t="s">
         <v>207</v>
       </c>
@@ -7971,7 +7847,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>91</v>
       </c>
@@ -7983,7 +7859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="39" t="s">
         <v>92</v>
       </c>
@@ -7997,7 +7873,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
@@ -8006,7 +7882,7 @@
         <v>21677</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" s="50"/>
     </row>
   </sheetData>
@@ -8057,21 +7933,21 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="12"/>
-    <col min="4" max="4" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="12"/>
-    <col min="8" max="8" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="48.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="12"/>
+    <col min="4" max="4" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.44140625" style="12"/>
+    <col min="8" max="8" width="20.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -8083,20 +7959,20 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="196" t="s">
+      <c r="D2" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -8105,7 +7981,7 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>30</v>
       </c>
@@ -8123,7 +7999,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
@@ -8146,7 +8022,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H6" s="49">
         <f>SUM(B5,E9,E13,E20,E27,E38,E52,E62)</f>
         <v>30431</v>
@@ -8158,7 +8034,7 @@
       <c r="K6" s="35"/>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
@@ -8177,7 +8053,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -8196,7 +8072,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>40</v>
       </c>
@@ -8216,7 +8092,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -8228,7 +8104,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
@@ -8237,7 +8113,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -8266,7 +8142,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
@@ -8286,7 +8162,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -8295,11 +8171,11 @@
       <c r="K14" s="28"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="197"/>
+      <c r="I15" s="182"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -8307,7 +8183,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
@@ -8323,14 +8199,14 @@
         <f>C16*D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="197"/>
+      <c r="I16" s="182"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="198"/>
+      <c r="K16" s="183"/>
       <c r="L16" s="37"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>45</v>
       </c>
@@ -8348,10 +8224,10 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="198"/>
+      <c r="K17" s="183"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
@@ -8369,10 +8245,10 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="198"/>
+      <c r="K18" s="183"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -8390,10 +8266,10 @@
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="198"/>
+      <c r="K19" s="183"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>40</v>
       </c>
@@ -8409,21 +8285,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
@@ -8444,7 +8320,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>50</v>
       </c>
@@ -8461,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>51</v>
       </c>
@@ -8480,11 +8356,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="29"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>52</v>
       </c>
@@ -8505,7 +8381,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
@@ -8521,17 +8397,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
@@ -8548,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -8565,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>56</v>
       </c>
@@ -8582,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>57</v>
       </c>
@@ -8599,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
@@ -8616,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>59</v>
       </c>
@@ -8633,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>60</v>
       </c>
@@ -8652,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>61</v>
       </c>
@@ -8669,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>40</v>
       </c>
@@ -8685,17 +8561,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>63</v>
       </c>
@@ -8712,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>64</v>
       </c>
@@ -8729,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>65</v>
       </c>
@@ -8746,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
@@ -8763,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>67</v>
       </c>
@@ -8780,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>68</v>
       </c>
@@ -8797,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>69</v>
       </c>
@@ -8814,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>70</v>
       </c>
@@ -8831,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
@@ -8848,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
@@ -8865,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>73</v>
       </c>
@@ -8882,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>40</v>
       </c>
@@ -8898,17 +8774,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>75</v>
       </c>
@@ -8927,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>76</v>
       </c>
@@ -8946,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
@@ -8963,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>78</v>
       </c>
@@ -8980,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>79</v>
       </c>
@@ -8997,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>80</v>
       </c>
@@ -9014,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>81</v>
       </c>
@@ -9031,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>40</v>
       </c>
@@ -9047,22 +8923,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="200" t="s">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="201"/>
-      <c r="D66" s="201"/>
-      <c r="E66" s="202"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="187"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
     </row>
-    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="203"/>
-      <c r="C67" s="204"/>
-      <c r="D67" s="204"/>
-      <c r="E67" s="205"/>
+    <row r="67" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="188"/>
+      <c r="C67" s="189"/>
+      <c r="D67" s="189"/>
+      <c r="E67" s="190"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -9119,563 +8995,563 @@
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="217" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="195"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="195"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="208" t="s">
+      <c r="J3" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="209"/>
-      <c r="L3" s="210"/>
-      <c r="N3" s="206" t="s">
+      <c r="K3" s="194"/>
+      <c r="L3" s="195"/>
+      <c r="N3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="211"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="213"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="196"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="198"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="213"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="211"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="213"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="198"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="192"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="198"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="213"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="198"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="213"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="211"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="213"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="198"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="192"/>
+      <c r="R5" s="192"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="213"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="213"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="211"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="213"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="198"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="196"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="198"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="213"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="213"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="207"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="211"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="198"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="196"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="213"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="198"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="213"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="207"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="211"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="213"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="198"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="196"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="213"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="198"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="213"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="207"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="214"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="216"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="192"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="199"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="201"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="216"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="207"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="217" t="s">
+      <c r="J10" s="199"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="201"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="192"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="208" t="s">
+      <c r="F12" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="209"/>
-      <c r="H12" s="210"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="195"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="208" t="s">
+      <c r="J12" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="209"/>
-      <c r="L12" s="210"/>
-      <c r="N12" s="206" t="s">
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
+      <c r="N12" s="191" t="s">
         <v>214</v>
       </c>
-      <c r="O12" s="206"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="206"/>
-      <c r="R12" s="206"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="211"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="191"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="213"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="198"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="213"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="207"/>
-      <c r="R13" s="207"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="211"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="213"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="198"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="192"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="196"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="198"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="213"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="198"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="213"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="207"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="207"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="211"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="213"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="198"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="192"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="213"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="213"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="207"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="211"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="192"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="196"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="198"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="213"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="213"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="207"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="211"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="213"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="198"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="192"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="196"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="198"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="213"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="213"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="207"/>
-      <c r="P17" s="207"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="207"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="211"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="213"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="198"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="196"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="198"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="213"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="213"/>
-      <c r="N18" s="207"/>
-      <c r="O18" s="207"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="207"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="214"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="198"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="216"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="216"/>
-      <c r="N19" s="207"/>
-      <c r="O19" s="207"/>
-      <c r="P19" s="207"/>
-      <c r="Q19" s="207"/>
-      <c r="R19" s="207"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="208" t="s">
+      <c r="J19" s="199"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="201"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="N20" s="192"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="192"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="208" t="s">
+      <c r="F21" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="209"/>
-      <c r="H21" s="210"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="195"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="208" t="s">
+      <c r="J21" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="209"/>
-      <c r="L21" s="210"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="211"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="213"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="195"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="192"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="213"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="198"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="212"/>
-      <c r="L22" s="213"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="207"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="213"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="198"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="192"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="192"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="196"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="198"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="213"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="198"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="213"/>
-      <c r="N23" s="207"/>
-      <c r="O23" s="207"/>
-      <c r="P23" s="207"/>
-      <c r="Q23" s="207"/>
-      <c r="R23" s="207"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="211"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="213"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="198"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="192"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="196"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="198"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="213"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="198"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="213"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="211"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="213"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="198"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="196"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="198"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="213"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="198"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="212"/>
-      <c r="L25" s="213"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="213"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="198"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="196"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="198"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="213"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="198"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="212"/>
-      <c r="L26" s="213"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="211"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="213"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="198"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="196"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="198"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="213"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="198"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="211"/>
-      <c r="K27" s="212"/>
-      <c r="L27" s="213"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="198"/>
       <c r="P27" s="45"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="214"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="216"/>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="199"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="216"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="201"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="216"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="201"/>
       <c r="T28" s="45"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="T29" s="45"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="208" t="s">
+      <c r="F30" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="209"/>
-      <c r="H30" s="210"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="195"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="208" t="s">
+      <c r="J30" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="209"/>
-      <c r="L30" s="210"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="195"/>
       <c r="S30" s="75"/>
       <c r="T30" s="45"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="211"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="213"/>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="196"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="198"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="213"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="198"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="213"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="211"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="213"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="198"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="196"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="213"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="211"/>
-      <c r="K32" s="212"/>
-      <c r="L32" s="213"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="211"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="213"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="198"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="196"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="198"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="213"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="198"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="211"/>
-      <c r="K33" s="212"/>
-      <c r="L33" s="213"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="213"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="198"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="196"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="198"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="213"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="198"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="211"/>
-      <c r="K34" s="212"/>
-      <c r="L34" s="213"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="211"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="213"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="198"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="196"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="198"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="213"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="198"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="211"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="213"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="211"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="213"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="197"/>
+      <c r="L35" s="198"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="196"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="198"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="213"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="198"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="212"/>
-      <c r="L36" s="213"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="214"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="216"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="197"/>
+      <c r="L36" s="198"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="199"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="201"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="216"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="201"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="216"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="201"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -9723,29 +9599,29 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="218" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="203" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="F3" s="219" t="s">
+      <c r="D3" s="203"/>
+      <c r="F3" s="204" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="219"/>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="204"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="103">
         <v>450</v>
       </c>
@@ -9768,7 +9644,7 @@
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6" s="101" t="s">
         <v>101</v>
       </c>
@@ -9782,7 +9658,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" s="102">
         <f t="shared" ref="C7:C26" si="0">(($C$5/60^3)/24)*D7</f>
         <v>4.3402777777777779E-5</v>
@@ -9797,7 +9673,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" s="102">
         <f t="shared" si="0"/>
         <v>8.6805555555555559E-5</v>
@@ -9813,7 +9689,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="102">
         <f t="shared" si="0"/>
         <v>1.3020833333333333E-4</v>
@@ -9828,7 +9704,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="102">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-4</v>
@@ -9844,7 +9720,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="102">
         <f t="shared" si="0"/>
         <v>2.170138888888889E-4</v>
@@ -9859,7 +9735,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="102">
         <f t="shared" si="0"/>
         <v>2.6041666666666666E-4</v>
@@ -9874,7 +9750,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="102">
         <f t="shared" si="0"/>
         <v>3.0381944444444445E-4</v>
@@ -9889,7 +9765,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="102">
         <f t="shared" si="0"/>
         <v>3.4722222222222224E-4</v>
@@ -9905,7 +9781,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="102">
         <f t="shared" si="0"/>
         <v>3.9062500000000002E-4</v>
@@ -9914,7 +9790,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16" s="102">
         <f t="shared" si="0"/>
         <v>4.3402777777777781E-4</v>
@@ -9923,7 +9799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="102">
         <f t="shared" si="0"/>
         <v>4.7743055555555559E-4</v>
@@ -9933,7 +9809,7 @@
       </c>
       <c r="K17" s="100"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="102">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -9942,7 +9818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="102">
         <f t="shared" si="0"/>
         <v>5.6423611111111117E-4</v>
@@ -9951,7 +9827,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="102">
         <f t="shared" si="0"/>
         <v>6.076388888888889E-4</v>
@@ -9960,7 +9836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="102">
         <f t="shared" si="0"/>
         <v>6.5104166666666674E-4</v>
@@ -9969,7 +9845,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="102">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -9978,7 +9854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="102">
         <f t="shared" si="0"/>
         <v>7.378472222222222E-4</v>
@@ -9987,7 +9863,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="102">
         <f t="shared" si="0"/>
         <v>7.8125000000000004E-4</v>
@@ -9996,7 +9872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="102">
         <f t="shared" si="0"/>
         <v>8.2465277777777778E-4</v>
@@ -10005,7 +9881,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="102">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -10031,17 +9907,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>137</v>
       </c>
@@ -10067,7 +9943,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>140</v>
       </c>
@@ -10093,7 +9969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>112</v>
       </c>
@@ -10119,7 +9995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>141</v>
       </c>
@@ -10145,7 +10021,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>145</v>
       </c>
@@ -10171,7 +10047,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>142</v>
       </c>
@@ -10192,7 +10068,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>146</v>
       </c>
@@ -10213,7 +10089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>115</v>
       </c>
@@ -10234,7 +10110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>144</v>
       </c>
@@ -10255,7 +10131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
@@ -10276,7 +10152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>162</v>
       </c>
@@ -10297,7 +10173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>139</v>
       </c>
@@ -10318,7 +10194,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>163</v>
       </c>
@@ -10339,7 +10215,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>164</v>
       </c>
@@ -10360,7 +10236,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>165</v>
       </c>
@@ -10381,7 +10257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="45" t="s">
         <v>160</v>
@@ -10394,7 +10270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="45" t="s">
         <v>161</v>
@@ -10404,7 +10280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="45" t="s">
         <v>236</v>
       </c>
@@ -10412,32 +10288,32 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E19" s="45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E20" s="45" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E21" s="45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E22" s="45" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E23" s="45" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E24" s="45" t="s">
         <v>203</v>
       </c>
